--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,19 +499,19 @@
         <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>326.035</v>
+        <v>274.242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.543</v>
+        <v>0.648</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.801</v>
+        <v>-1.143</v>
       </c>
       <c r="H2" t="n">
-        <v>18.142</v>
+        <v>15.837</v>
       </c>
       <c r="I2" t="n">
-        <v>20.813</v>
+        <v>21.324</v>
       </c>
     </row>
     <row r="3">
@@ -532,19 +532,19 @@
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>275.305</v>
+        <v>295.904</v>
       </c>
       <c r="F3" t="n">
-        <v>0.626</v>
+        <v>0.607</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9340000000000001</v>
+        <v>-0.751</v>
       </c>
       <c r="H3" t="n">
-        <v>16.362</v>
+        <v>16.766</v>
       </c>
       <c r="I3" t="n">
-        <v>20.707</v>
+        <v>21.307</v>
       </c>
     </row>
     <row r="4">
@@ -565,19 +565,19 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>269.431</v>
+        <v>322.548</v>
       </c>
       <c r="F4" t="n">
-        <v>0.547</v>
+        <v>0.602</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.251</v>
+        <v>-0.9330000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>18.059</v>
+        <v>16.869</v>
       </c>
       <c r="I4" t="n">
-        <v>19.519</v>
+        <v>20.296</v>
       </c>
     </row>
     <row r="5">
@@ -598,19 +598,19 @@
         <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>264.046</v>
+        <v>233.985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.651</v>
+        <v>0.707</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.891</v>
+        <v>-0.999</v>
       </c>
       <c r="H5" t="n">
-        <v>15.849</v>
+        <v>14.491</v>
       </c>
       <c r="I5" t="n">
-        <v>20.675</v>
+        <v>20.475</v>
       </c>
     </row>
     <row r="6">
@@ -631,19 +631,19 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>266.853</v>
+        <v>298.006</v>
       </c>
       <c r="F6" t="n">
-        <v>0.666</v>
+        <v>0.643</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8</v>
+        <v>-0.804</v>
       </c>
       <c r="H6" t="n">
-        <v>15.483</v>
+        <v>15.947</v>
       </c>
       <c r="I6" t="n">
-        <v>20.392</v>
+        <v>19.859</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>0.001</v>
       </c>
       <c r="E7" t="n">
-        <v>232.486</v>
+        <v>216.404</v>
       </c>
       <c r="F7" t="n">
-        <v>0.703</v>
+        <v>0.733</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.228</v>
+        <v>-1.458</v>
       </c>
       <c r="H7" t="n">
-        <v>14.572</v>
+        <v>13.716</v>
       </c>
       <c r="I7" t="n">
-        <v>20.002</v>
+        <v>19.795</v>
       </c>
     </row>
     <row r="8">
@@ -697,19 +697,19 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>256.306</v>
+        <v>382.52</v>
       </c>
       <c r="F8" t="n">
-        <v>0.674</v>
+        <v>0.501</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.188</v>
+        <v>-0.533</v>
       </c>
       <c r="H8" t="n">
-        <v>15.322</v>
+        <v>19.002</v>
       </c>
       <c r="I8" t="n">
-        <v>19.453</v>
+        <v>22.461</v>
       </c>
     </row>
     <row r="9">
@@ -730,19 +730,85 @@
         <v>0.001</v>
       </c>
       <c r="E9" t="n">
-        <v>196.422</v>
+        <v>189.239</v>
       </c>
       <c r="F9" t="n">
-        <v>0.695</v>
+        <v>0.751</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.73</v>
+        <v>-0.903</v>
       </c>
       <c r="H9" t="n">
-        <v>14.8</v>
+        <v>13.382</v>
       </c>
       <c r="I9" t="n">
-        <v>20.463</v>
+        <v>19.503</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="n">
+        <v>251.795</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.551</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.821</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>194.41</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1.093</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.328</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.878</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,25 +457,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>graph_readout</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>molecules_combination</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>training_loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>r2_train</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_train</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>r2_test</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_train</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rmse_test</t>
         </is>
@@ -498,20 +508,30 @@
       <c r="D2" t="n">
         <v>0.01</v>
       </c>
-      <c r="E2" t="n">
-        <v>274.242</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.648</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>-1.143</v>
+        <v>283.769</v>
       </c>
       <c r="H2" t="n">
-        <v>15.837</v>
+        <v>0.63</v>
       </c>
       <c r="I2" t="n">
-        <v>21.324</v>
+        <v>16.328</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.576</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.017</v>
       </c>
     </row>
     <row r="3">
@@ -529,22 +549,32 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>295.904</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.607</v>
+        <v>0.01</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.751</v>
+        <v>507.207</v>
       </c>
       <c r="H3" t="n">
-        <v>16.766</v>
+        <v>0.388</v>
       </c>
       <c r="I3" t="n">
-        <v>21.307</v>
+        <v>20.948</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24.836</v>
       </c>
     </row>
     <row r="4">
@@ -559,25 +589,35 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E4" t="n">
-        <v>322.548</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.602</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>-0.9330000000000001</v>
+        <v>278.163</v>
       </c>
       <c r="H4" t="n">
-        <v>16.869</v>
+        <v>0.631</v>
       </c>
       <c r="I4" t="n">
-        <v>20.296</v>
+        <v>16.296</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.554</v>
       </c>
     </row>
     <row r="5">
@@ -592,25 +632,35 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>233.985</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.707</v>
+        <v>0.01</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>-0.999</v>
+        <v>266.322</v>
       </c>
       <c r="H5" t="n">
-        <v>14.491</v>
+        <v>0.659</v>
       </c>
       <c r="I5" t="n">
-        <v>20.475</v>
+        <v>15.682</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.529</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.789</v>
       </c>
     </row>
     <row r="6">
@@ -625,25 +675,35 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.01</v>
       </c>
-      <c r="E6" t="n">
-        <v>298.006</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.643</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>-0.804</v>
+        <v>363.262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.947</v>
+        <v>0.512</v>
       </c>
       <c r="I6" t="n">
-        <v>19.859</v>
+        <v>18.699</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.223</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.204</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +718,35 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>216.404</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.733</v>
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>-1.458</v>
+        <v>271.956</v>
       </c>
       <c r="H7" t="n">
-        <v>13.716</v>
+        <v>0.644</v>
       </c>
       <c r="I7" t="n">
-        <v>19.795</v>
+        <v>16.049</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.508</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21.757</v>
       </c>
     </row>
     <row r="8">
@@ -691,25 +761,35 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0.01</v>
       </c>
-      <c r="E8" t="n">
-        <v>382.52</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.501</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>-0.533</v>
+        <v>242.445</v>
       </c>
       <c r="H8" t="n">
-        <v>19.002</v>
+        <v>0.68</v>
       </c>
       <c r="I8" t="n">
-        <v>22.461</v>
+        <v>15.07</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.545</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19.436</v>
       </c>
     </row>
     <row r="9">
@@ -724,25 +804,35 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>189.239</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.751</v>
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>-0.903</v>
+        <v>1881.255</v>
       </c>
       <c r="H9" t="n">
-        <v>13.382</v>
+        <v>-1.563</v>
       </c>
       <c r="I9" t="n">
-        <v>19.503</v>
+        <v>43.139</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1.759</v>
+      </c>
+      <c r="K9" t="n">
+        <v>39.97</v>
       </c>
     </row>
     <row r="10">
@@ -757,25 +847,35 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.01</v>
       </c>
-      <c r="E10" t="n">
-        <v>251.795</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.702</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>-1.173</v>
+        <v>247.851</v>
       </c>
       <c r="H10" t="n">
-        <v>14.551</v>
+        <v>0.676</v>
       </c>
       <c r="I10" t="n">
-        <v>19.821</v>
+        <v>15.294</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.574</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21.419</v>
       </c>
     </row>
     <row r="11">
@@ -790,25 +890,981 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0.001</v>
       </c>
-      <c r="E11" t="n">
-        <v>194.41</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.751</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>-1.093</v>
+        <v>290.755</v>
       </c>
       <c r="H11" t="n">
-        <v>13.328</v>
+        <v>0.617</v>
       </c>
       <c r="I11" t="n">
-        <v>19.878</v>
+        <v>16.626</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.435</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22.906</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>235.008</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14.661</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>308.381</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17.246</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.378</v>
+      </c>
+      <c r="K13" t="n">
+        <v>23.503</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>298.161</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16.922</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.656</v>
+      </c>
+      <c r="K14" t="n">
+        <v>22.482</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>253.768</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15.217</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.744</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>332.766</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.803</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.793</v>
+      </c>
+      <c r="K16" t="n">
+        <v>22.499</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>258.368</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15.769</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.719</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21.262</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>192.751</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13.401</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.368</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19.461</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>329.733</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17.839</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.627</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.309</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>265.599</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15.769</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="K20" t="n">
+        <v>19.787</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>675.894</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25.729</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.217</v>
+      </c>
+      <c r="K21" t="n">
+        <v>29.635</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>269.979</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15.591</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.212</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19.698</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>250.233</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.376</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.633</v>
+      </c>
+      <c r="K23" t="n">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>217.241</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13.876</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.215</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19.357</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>255.465</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15.542</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.575</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20.398</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>239.403</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.896</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.521</v>
+      </c>
+      <c r="K26" t="n">
+        <v>19.799</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>410.927</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19.522</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.543</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22.424</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>246.795</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15.371</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.959</v>
+      </c>
+      <c r="K28" t="n">
+        <v>19.947</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>271.476</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15.957</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.708</v>
+      </c>
+      <c r="K29" t="n">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>225.988</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13.908</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.234</v>
+      </c>
+      <c r="K30" t="n">
+        <v>18.804</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>280.403</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16.315</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.572</v>
+      </c>
+      <c r="K31" t="n">
+        <v>22.839</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>268.949</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16.036</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.715</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22.175</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>229.808</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20.069</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,6 +1867,1640 @@
         <v>20.069</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>299.575</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I34" t="n">
+        <v>16.402</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.634</v>
+      </c>
+      <c r="K34" t="n">
+        <v>21.918</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>273.72</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="I35" t="n">
+        <v>15.693</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.353</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20.319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>353.496</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="I36" t="n">
+        <v>18.143</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.438</v>
+      </c>
+      <c r="K36" t="n">
+        <v>22.217</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>706.9400000000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.995</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.371</v>
+      </c>
+      <c r="K37" t="n">
+        <v>26.845</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>254.404</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="I38" t="n">
+        <v>15.501</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.192</v>
+      </c>
+      <c r="K38" t="n">
+        <v>20.094</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>244.061</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.897</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.405</v>
+      </c>
+      <c r="K39" t="n">
+        <v>20.359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>220.297</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.194</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="K40" t="n">
+        <v>19.798</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>239.902</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.959</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.463</v>
+      </c>
+      <c r="K41" t="n">
+        <v>19.332</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>241.947</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.658</v>
+      </c>
+      <c r="K42" t="n">
+        <v>19.249</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>256.022</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>14.896</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.162</v>
+      </c>
+      <c r="K43" t="n">
+        <v>21.055</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>247.39</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14.989</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.534</v>
+      </c>
+      <c r="K44" t="n">
+        <v>19.855</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>238.591</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.435</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20.721</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>233.958</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="I46" t="n">
+        <v>13.099</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="K46" t="n">
+        <v>18.945</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>262.373</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15.955</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.361</v>
+      </c>
+      <c r="K47" t="n">
+        <v>21.061</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>247.865</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15.377</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.547</v>
+      </c>
+      <c r="K48" t="n">
+        <v>19.742</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>219.259</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="I49" t="n">
+        <v>13.653</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="K49" t="n">
+        <v>18.602</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>256.981</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15.664</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.706</v>
+      </c>
+      <c r="K50" t="n">
+        <v>20.903</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>238.393</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>14.932</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.777</v>
+      </c>
+      <c r="K51" t="n">
+        <v>21.342</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>226.35</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14.426</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.172</v>
+      </c>
+      <c r="K52" t="n">
+        <v>20.379</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>241.46</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15.246</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.589</v>
+      </c>
+      <c r="K53" t="n">
+        <v>21.872</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>238.488</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14.911</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="K54" t="n">
+        <v>19.263</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>369.019</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18.646</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="K55" t="n">
+        <v>22.051</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>241.08</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="I56" t="n">
+        <v>15.095</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.211</v>
+      </c>
+      <c r="K56" t="n">
+        <v>18.876</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>236.035</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.943</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.501</v>
+      </c>
+      <c r="K57" t="n">
+        <v>19.481</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>373.744</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="I58" t="n">
+        <v>18.371</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.153</v>
+      </c>
+      <c r="K58" t="n">
+        <v>21.701</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>258.937</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15.231</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.638</v>
+      </c>
+      <c r="K59" t="n">
+        <v>20.005</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>242.6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15.185</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.294</v>
+      </c>
+      <c r="K60" t="n">
+        <v>20.489</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>65184181860.873</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-1.149</v>
+      </c>
+      <c r="I61" t="n">
+        <v>39.438</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1.217</v>
+      </c>
+      <c r="K61" t="n">
+        <v>36.563</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>244.787</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14.921</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.669</v>
+      </c>
+      <c r="K62" t="n">
+        <v>19.647</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>237.943</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15.003</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.531</v>
+      </c>
+      <c r="K63" t="n">
+        <v>19.679</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>196.366</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13.336</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.223</v>
+      </c>
+      <c r="K64" t="n">
+        <v>19.738</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>244.334</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15.253</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="K65" t="n">
+        <v>20.202</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>238.364</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14.868</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.531</v>
+      </c>
+      <c r="K66" t="n">
+        <v>20.679</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>193.061</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13.386</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.396</v>
+      </c>
+      <c r="K67" t="n">
+        <v>19.027</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>235.527</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14.921</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.497</v>
+      </c>
+      <c r="K68" t="n">
+        <v>21.041</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>241.937</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>14.952</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="K69" t="n">
+        <v>20.236</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>191.98</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13.012</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.282</v>
+      </c>
+      <c r="K70" t="n">
+        <v>20.059</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>241.623</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15.043</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.462</v>
+      </c>
+      <c r="K71" t="n">
+        <v>19.543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,6 +3501,135 @@
         <v>19.543</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>250.01</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15.578</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.585</v>
+      </c>
+      <c r="K72" t="n">
+        <v>22.056</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>197.013</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13.434</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.434</v>
+      </c>
+      <c r="K73" t="n">
+        <v>19.561</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>261.989</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15.935</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.521</v>
+      </c>
+      <c r="K74" t="n">
+        <v>21.371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogofbraga/Desktop/Dissertation/yield_prediction/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE61623-15C0-414F-A7ED-4BA2F96E0CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A70CA4F-9151-D049-A514-F8552A5C09E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="17">
   <si>
     <t>molecule</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -637,19 +637,19 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>363.262</v>
+        <v>233.04300000000001</v>
       </c>
       <c r="H6">
-        <v>0.51200000000000001</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="I6">
-        <v>18.699000000000002</v>
+        <v>14.403</v>
       </c>
       <c r="J6">
-        <v>-0.223</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="K6">
-        <v>22.204000000000001</v>
+        <v>20.297999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -952,19 +952,19 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <v>253.768</v>
+        <v>295.92099999999999</v>
       </c>
       <c r="H15">
-        <v>0.67700000000000005</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="I15">
-        <v>15.217000000000001</v>
+        <v>15.856</v>
       </c>
       <c r="J15">
-        <v>-0.25</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="K15">
-        <v>20.744</v>
+        <v>20.646000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1789,22 +1789,22 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>353.49599999999998</v>
+        <v>706.94</v>
       </c>
       <c r="H39">
-        <v>0.54400000000000004</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="I39">
-        <v>18.143000000000001</v>
+        <v>23.995000000000001</v>
       </c>
       <c r="J39">
-        <v>-0.438</v>
+        <v>-0.371</v>
       </c>
       <c r="K39">
-        <v>22.216999999999999</v>
+        <v>26.844999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1824,22 +1824,22 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>706.94</v>
+        <v>254.404</v>
       </c>
       <c r="H40">
-        <v>0.19800000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="I40">
-        <v>23.995000000000001</v>
+        <v>15.500999999999999</v>
       </c>
       <c r="J40">
-        <v>-0.371</v>
+        <v>-0.192</v>
       </c>
       <c r="K40">
-        <v>26.844999999999999</v>
+        <v>20.094000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1856,25 +1856,25 @@
         <v>0.01</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G41">
-        <v>254.404</v>
+        <v>244.06100000000001</v>
       </c>
       <c r="H41">
-        <v>0.66700000000000004</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="I41">
-        <v>15.500999999999999</v>
+        <v>14.897</v>
       </c>
       <c r="J41">
-        <v>-0.192</v>
+        <v>-0.40500000000000003</v>
       </c>
       <c r="K41">
-        <v>20.094000000000001</v>
+        <v>20.359000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1894,22 +1894,22 @@
         <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42">
-        <v>244.06100000000001</v>
+        <v>220.297</v>
       </c>
       <c r="H42">
-        <v>0.68799999999999994</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="I42">
-        <v>14.897</v>
+        <v>14.194000000000001</v>
       </c>
       <c r="J42">
-        <v>-0.40500000000000003</v>
+        <v>-0.13700000000000001</v>
       </c>
       <c r="K42">
-        <v>20.359000000000002</v>
+        <v>19.797999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1929,22 +1929,22 @@
         <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>220.297</v>
+        <v>239.90199999999999</v>
       </c>
       <c r="H43">
-        <v>0.71899999999999997</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="I43">
-        <v>14.194000000000001</v>
+        <v>14.959</v>
       </c>
       <c r="J43">
-        <v>-0.13700000000000001</v>
+        <v>-0.46300000000000002</v>
       </c>
       <c r="K43">
-        <v>19.797999999999998</v>
+        <v>19.332000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1961,25 +1961,25 @@
         <v>0.01</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G44">
-        <v>239.90199999999999</v>
+        <v>241.947</v>
       </c>
       <c r="H44">
-        <v>0.68700000000000006</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="I44">
-        <v>14.959</v>
+        <v>14.89</v>
       </c>
       <c r="J44">
-        <v>-0.46300000000000002</v>
+        <v>-0.65800000000000003</v>
       </c>
       <c r="K44">
-        <v>19.332000000000001</v>
+        <v>19.248999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1999,22 +1999,22 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45">
-        <v>241.947</v>
+        <v>256.02199999999999</v>
       </c>
       <c r="H45">
-        <v>0.69199999999999995</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="I45">
-        <v>14.89</v>
+        <v>14.896000000000001</v>
       </c>
       <c r="J45">
-        <v>-0.65800000000000003</v>
+        <v>-0.16200000000000001</v>
       </c>
       <c r="K45">
-        <v>19.248999999999999</v>
+        <v>21.055</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2034,22 +2034,22 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46">
-        <v>256.02199999999999</v>
+        <v>247.39</v>
       </c>
       <c r="H46">
-        <v>0.69099999999999995</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="I46">
-        <v>14.896000000000001</v>
+        <v>14.989000000000001</v>
       </c>
       <c r="J46">
-        <v>-0.16200000000000001</v>
+        <v>-0.53400000000000003</v>
       </c>
       <c r="K46">
-        <v>21.055</v>
+        <v>19.855</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -2063,28 +2063,28 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G47">
-        <v>247.39</v>
+        <v>238.59100000000001</v>
       </c>
       <c r="H47">
-        <v>0.68899999999999995</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="I47">
-        <v>14.989000000000001</v>
+        <v>15.31</v>
       </c>
       <c r="J47">
-        <v>-0.53400000000000003</v>
+        <v>-0.435</v>
       </c>
       <c r="K47">
-        <v>19.855</v>
+        <v>20.721</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2104,22 +2104,22 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48">
-        <v>238.59100000000001</v>
+        <v>233.958</v>
       </c>
       <c r="H48">
-        <v>0.67300000000000004</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="I48">
-        <v>15.31</v>
+        <v>13.099</v>
       </c>
       <c r="J48">
-        <v>-0.435</v>
+        <v>-0.45</v>
       </c>
       <c r="K48">
-        <v>20.721</v>
+        <v>18.945</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2139,22 +2139,22 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49">
-        <v>233.958</v>
+        <v>262.37299999999999</v>
       </c>
       <c r="H49">
-        <v>0.75800000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="I49">
-        <v>13.099</v>
+        <v>15.955</v>
       </c>
       <c r="J49">
-        <v>-0.45</v>
+        <v>-0.36099999999999999</v>
       </c>
       <c r="K49">
-        <v>18.945</v>
+        <v>21.061</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2171,25 +2171,25 @@
         <v>1E-3</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G50">
-        <v>262.37299999999999</v>
+        <v>247.86500000000001</v>
       </c>
       <c r="H50">
-        <v>0.64400000000000002</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="I50">
-        <v>15.955</v>
+        <v>15.377000000000001</v>
       </c>
       <c r="J50">
-        <v>-0.36099999999999999</v>
+        <v>-0.54700000000000004</v>
       </c>
       <c r="K50">
-        <v>21.061</v>
+        <v>19.742000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2209,22 +2209,22 @@
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>247.86500000000001</v>
+        <v>219.25899999999999</v>
       </c>
       <c r="H51">
-        <v>0.67100000000000004</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="I51">
-        <v>15.377000000000001</v>
+        <v>13.653</v>
       </c>
       <c r="J51">
-        <v>-0.54700000000000004</v>
+        <v>-0.245</v>
       </c>
       <c r="K51">
-        <v>19.742000000000001</v>
+        <v>18.602</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -2244,22 +2244,22 @@
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52">
-        <v>219.25899999999999</v>
+        <v>256.98099999999999</v>
       </c>
       <c r="H52">
-        <v>0.73699999999999999</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="I52">
-        <v>13.653</v>
+        <v>15.664</v>
       </c>
       <c r="J52">
-        <v>-0.245</v>
+        <v>-0.70599999999999996</v>
       </c>
       <c r="K52">
-        <v>18.602</v>
+        <v>20.902999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2276,25 +2276,25 @@
         <v>1E-3</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>256.98099999999999</v>
+        <v>238.393</v>
       </c>
       <c r="H53">
-        <v>0.66100000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="I53">
-        <v>15.664</v>
+        <v>14.932</v>
       </c>
       <c r="J53">
-        <v>-0.70599999999999996</v>
+        <v>-0.77700000000000002</v>
       </c>
       <c r="K53">
-        <v>20.902999999999999</v>
+        <v>21.341999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2314,22 +2314,22 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54">
-        <v>238.393</v>
+        <v>226.35</v>
       </c>
       <c r="H54">
-        <v>0.69</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="I54">
-        <v>14.932</v>
+        <v>14.426</v>
       </c>
       <c r="J54">
-        <v>-0.77700000000000002</v>
+        <v>-0.17199999999999999</v>
       </c>
       <c r="K54">
-        <v>21.341999999999999</v>
+        <v>20.379000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2349,22 +2349,22 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55">
-        <v>226.35</v>
+        <v>241.46</v>
       </c>
       <c r="H55">
-        <v>0.71099999999999997</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="I55">
-        <v>14.426</v>
+        <v>15.246</v>
       </c>
       <c r="J55">
-        <v>-0.17199999999999999</v>
+        <v>-0.58899999999999997</v>
       </c>
       <c r="K55">
-        <v>20.379000000000001</v>
+        <v>21.872</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2375,31 +2375,31 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G56">
-        <v>241.46</v>
+        <v>238.488</v>
       </c>
       <c r="H56">
-        <v>0.67500000000000004</v>
+        <v>0.69</v>
       </c>
       <c r="I56">
-        <v>15.246</v>
+        <v>14.911</v>
       </c>
       <c r="J56">
-        <v>-0.58899999999999997</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="K56">
-        <v>21.872</v>
+        <v>19.263000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2419,22 +2419,22 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57">
-        <v>238.488</v>
+        <v>369.01900000000001</v>
       </c>
       <c r="H57">
-        <v>0.69</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="I57">
-        <v>14.911</v>
+        <v>18.646000000000001</v>
       </c>
       <c r="J57">
-        <v>-6.3E-2</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="K57">
-        <v>19.263000000000002</v>
+        <v>22.050999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2454,22 +2454,22 @@
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58">
-        <v>369.01900000000001</v>
+        <v>241.08</v>
       </c>
       <c r="H58">
-        <v>0.51600000000000001</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="I58">
-        <v>18.646000000000001</v>
+        <v>15.095000000000001</v>
       </c>
       <c r="J58">
-        <v>-5.8000000000000003E-2</v>
+        <v>-0.21099999999999999</v>
       </c>
       <c r="K58">
-        <v>22.050999999999998</v>
+        <v>18.876000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -2486,25 +2486,25 @@
         <v>0.01</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G59">
-        <v>241.08</v>
+        <v>236.035</v>
       </c>
       <c r="H59">
-        <v>0.68200000000000005</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="I59">
-        <v>15.095000000000001</v>
+        <v>14.943</v>
       </c>
       <c r="J59">
-        <v>-0.21099999999999999</v>
+        <v>-0.501</v>
       </c>
       <c r="K59">
-        <v>18.876000000000001</v>
+        <v>19.481000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2524,22 +2524,22 @@
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>236.035</v>
+        <v>373.74400000000003</v>
       </c>
       <c r="H60">
-        <v>0.68899999999999995</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="I60">
-        <v>14.943</v>
+        <v>18.370999999999999</v>
       </c>
       <c r="J60">
-        <v>-0.501</v>
+        <v>-0.153</v>
       </c>
       <c r="K60">
-        <v>19.481000000000002</v>
+        <v>21.701000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -2559,22 +2559,22 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61">
-        <v>373.74400000000003</v>
+        <v>258.93700000000001</v>
       </c>
       <c r="H61">
-        <v>0.53200000000000003</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I61">
-        <v>18.370999999999999</v>
+        <v>15.231</v>
       </c>
       <c r="J61">
-        <v>-0.153</v>
+        <v>-0.63800000000000001</v>
       </c>
       <c r="K61">
-        <v>21.701000000000001</v>
+        <v>20.004999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2591,25 +2591,25 @@
         <v>0.01</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G62">
-        <v>258.93700000000001</v>
+        <v>242.6</v>
       </c>
       <c r="H62">
-        <v>0.67700000000000005</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="I62">
-        <v>15.231</v>
+        <v>15.185</v>
       </c>
       <c r="J62">
-        <v>-0.63800000000000001</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="K62">
-        <v>20.004999999999999</v>
+        <v>20.489000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2629,22 +2629,22 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63">
-        <v>242.6</v>
+        <v>65184181860.873001</v>
       </c>
       <c r="H63">
-        <v>0.67900000000000005</v>
+        <v>-1.149</v>
       </c>
       <c r="I63">
-        <v>15.185</v>
+        <v>39.438000000000002</v>
       </c>
       <c r="J63">
-        <v>-0.29399999999999998</v>
+        <v>-1.2170000000000001</v>
       </c>
       <c r="K63">
-        <v>20.489000000000001</v>
+        <v>36.563000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -2664,22 +2664,22 @@
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64">
-        <v>65184181860.873001</v>
+        <v>244.78700000000001</v>
       </c>
       <c r="H64">
-        <v>-1.149</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="I64">
-        <v>39.438000000000002</v>
+        <v>14.920999999999999</v>
       </c>
       <c r="J64">
-        <v>-1.2170000000000001</v>
+        <v>-0.66900000000000004</v>
       </c>
       <c r="K64">
-        <v>36.563000000000002</v>
+        <v>19.646999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -2693,28 +2693,28 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G65">
-        <v>244.78700000000001</v>
+        <v>237.94300000000001</v>
       </c>
       <c r="H65">
-        <v>0.68899999999999995</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="I65">
-        <v>14.920999999999999</v>
+        <v>15.003</v>
       </c>
       <c r="J65">
-        <v>-0.66900000000000004</v>
+        <v>-0.53100000000000003</v>
       </c>
       <c r="K65">
-        <v>19.646999999999998</v>
+        <v>19.678999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -2734,22 +2734,22 @@
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66">
-        <v>237.94300000000001</v>
+        <v>196.36600000000001</v>
       </c>
       <c r="H66">
-        <v>0.68799999999999994</v>
+        <v>0.751</v>
       </c>
       <c r="I66">
-        <v>15.003</v>
+        <v>13.336</v>
       </c>
       <c r="J66">
-        <v>-0.53100000000000003</v>
+        <v>-0.223</v>
       </c>
       <c r="K66">
-        <v>19.678999999999998</v>
+        <v>19.738</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -2769,22 +2769,22 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67">
-        <v>196.36600000000001</v>
+        <v>244.334</v>
       </c>
       <c r="H67">
-        <v>0.751</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I67">
-        <v>13.336</v>
+        <v>15.253</v>
       </c>
       <c r="J67">
-        <v>-0.223</v>
+        <v>-0.45600000000000002</v>
       </c>
       <c r="K67">
-        <v>19.738</v>
+        <v>20.202000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -2801,25 +2801,25 @@
         <v>1E-3</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G68">
-        <v>244.334</v>
+        <v>238.364</v>
       </c>
       <c r="H68">
-        <v>0.67700000000000005</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="I68">
-        <v>15.253</v>
+        <v>14.868</v>
       </c>
       <c r="J68">
-        <v>-0.45600000000000002</v>
+        <v>-0.53100000000000003</v>
       </c>
       <c r="K68">
-        <v>20.202000000000002</v>
+        <v>20.678999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -2839,22 +2839,22 @@
         <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69">
-        <v>238.364</v>
+        <v>193.06100000000001</v>
       </c>
       <c r="H69">
-        <v>0.69099999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="I69">
-        <v>14.868</v>
+        <v>13.385999999999999</v>
       </c>
       <c r="J69">
-        <v>-0.53100000000000003</v>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="K69">
-        <v>20.678999999999998</v>
+        <v>19.027000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -2874,22 +2874,22 @@
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70">
-        <v>193.06100000000001</v>
+        <v>235.52699999999999</v>
       </c>
       <c r="H70">
-        <v>0.75</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="I70">
-        <v>13.385999999999999</v>
+        <v>14.920999999999999</v>
       </c>
       <c r="J70">
-        <v>-0.39600000000000002</v>
+        <v>-0.497</v>
       </c>
       <c r="K70">
-        <v>19.027000000000001</v>
+        <v>21.041</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -2906,25 +2906,25 @@
         <v>1E-3</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G71">
-        <v>235.52699999999999</v>
+        <v>241.93700000000001</v>
       </c>
       <c r="H71">
-        <v>0.68899999999999995</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="I71">
-        <v>14.920999999999999</v>
+        <v>14.952</v>
       </c>
       <c r="J71">
-        <v>-0.497</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="K71">
-        <v>21.041</v>
+        <v>20.236000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -2944,22 +2944,22 @@
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72">
-        <v>241.93700000000001</v>
+        <v>191.98</v>
       </c>
       <c r="H72">
-        <v>0.68799999999999994</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="I72">
-        <v>14.952</v>
+        <v>13.012</v>
       </c>
       <c r="J72">
-        <v>-0.56999999999999995</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="K72">
-        <v>20.236000000000001</v>
+        <v>20.059000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -2979,56 +2979,21 @@
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73">
-        <v>191.98</v>
+        <v>241.62299999999999</v>
       </c>
       <c r="H73">
-        <v>0.76400000000000001</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="I73">
-        <v>13.012</v>
+        <v>15.042999999999999</v>
       </c>
       <c r="J73">
-        <v>-0.28199999999999997</v>
+        <v>-0.46200000000000002</v>
       </c>
       <c r="K73">
-        <v>20.059000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74">
-        <v>5</v>
-      </c>
-      <c r="D74">
-        <v>1E-3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74">
-        <v>241.62299999999999</v>
-      </c>
-      <c r="H74">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="I74">
-        <v>15.042999999999999</v>
-      </c>
-      <c r="J74">
-        <v>-0.46200000000000002</v>
-      </c>
-      <c r="K74">
         <v>19.542999999999999</v>
       </c>
     </row>
